--- a/27_02_2023/EOR_AH001256.xlsx
+++ b/27_02_2023/EOR_AH001256.xlsx
@@ -28,7 +28,7 @@
     <x:t>Description</x:t>
   </x:si>
   <x:si>
-    <x:t>AH001256</x:t>
+    <x:t>Plantilla Reframwork</x:t>
   </x:si>
   <x:si>
     <x:t>Evento o Reubicación</x:t>
